--- a/biology/Virologie/Virus_des_taches_chlorotiques_du_pommier/Virus_des_taches_chlorotiques_du_pommier.xlsx
+++ b/biology/Virologie/Virus_des_taches_chlorotiques_du_pommier/Virus_des_taches_chlorotiques_du_pommier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apple chlorotic leaf spot virus
 Le virus des taches chlorotiques du pommier (ACLSV, Apple chlorotic leaf spot virus) est une espèce de virus du genre Trichovirus (famille des Betaflexiviridae), dont elle est l'espèce-type. C'est un virus à ARN à simple brin de polarité positive, rattaché au groupe IV de la classification Baltimore. 
@@ -513,9 +525,11 @@
           <t>Plantes-hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus ACLSV a une gamme d'hôtes relativement restreinte qui comprend diverses espèces de plantes de la famille des Rosaceae dans les genres Malus, Prunus, Pyrus, Cydonia, Sorbus et Mespilus. Les principales espèces affectées sont notamment : les pommiers (Malus domestica, Malus platycarpa et les pommiers ornementaux), les poiriers (Pyrus communis, Pyrus pyrifolia), le cognassier (Cydonia oblonga), l'abricotier (Prunus armeniaca), les cerisiers (Prunus avium, Prunus cerasus, Prunus tomentosa, Prunus cerasifera), les pruniers (Prunus domestica, Prunus salicina), le pêcher (Prunus persica) et le prunellier (Prunus spinosa)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus ACLSV a une gamme d'hôtes relativement restreinte qui comprend diverses espèces de plantes de la famille des Rosaceae dans les genres Malus, Prunus, Pyrus, Cydonia, Sorbus et Mespilus. Les principales espèces affectées sont notamment : les pommiers (Malus domestica, Malus platycarpa et les pommiers ornementaux), les poiriers (Pyrus communis, Pyrus pyrifolia), le cognassier (Cydonia oblonga), l'abricotier (Prunus armeniaca), les cerisiers (Prunus avium, Prunus cerasus, Prunus tomentosa, Prunus cerasifera), les pruniers (Prunus domestica, Prunus salicina), le pêcher (Prunus persica) et le prunellier (Prunus spinosa).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ACLSV peut être transmis expérimentalement par inoculation mécanique ou par greffage. Sa dissémination naturelle chez les espèces végétales ligneuses est limitée du fait de l'absence de vecteurs biologiques efficaces[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ACLSV peut être transmis expérimentalement par inoculation mécanique ou par greffage. Sa dissémination naturelle chez les espèces végétales ligneuses est limitée du fait de l'absence de vecteurs biologiques efficaces.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 février 2021)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 février 2021) :
 Apple chlorotic leaf spot virus (isolate APPLE)
 Apple chlorotic leaf spot virus (isolate PLUM P863)</t>
         </is>
